--- a/Phòng kỹ thuật/Báo cáo/BÁO CÁO THÁNG 11/KPI/BÁO CÁO KPI/1. Soạn thảo và viết SDSPDS/DANH SÁCH SDS CUNG CẤP CHO KHÁCH HÀNG.xlsx
+++ b/Phòng kỹ thuật/Báo cáo/BÁO CÁO THÁNG 11/KPI/BÁO CÁO KPI/1. Soạn thảo và viết SDSPDS/DANH SÁCH SDS CUNG CẤP CHO KHÁCH HÀNG.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Phòng kỹ thuật\Báo cáo\BÁO CÁO THÁNG 11\KPI\BÁO CÁO KPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kimhuong\Phòng kỹ thuật\Báo cáo\BÁO CÁO THÁNG 11\KPI\BÁO CÁO KPI\1. Soạn thảo và viết SDSPDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1A0AB8-DED7-45FD-8915-CEC95E3EAF47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470" xr2:uid="{7BE6B5EC-8668-4DF7-9C49-07FF5FE2402C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -42,9 +42,6 @@
     <t>SDS T.Việt</t>
   </si>
   <si>
-    <t>SDS T.Tắt</t>
-  </si>
-  <si>
     <t>NGƯỜI YÊU CẦU</t>
   </si>
   <si>
@@ -76,12 +73,21 @@
   </si>
   <si>
     <t>DANH SÁCH CÁC SDS ĐÃ CUNG CẤP CHO KHÁCH HÀNG (từ tháng 10/2022)</t>
+  </si>
+  <si>
+    <t>Trân (PTV)</t>
+  </si>
+  <si>
+    <t>Huntex SF-79 (PVAC-79)</t>
+  </si>
+  <si>
+    <t>SDS T.Tắt TV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -150,7 +156,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -168,7 +174,7 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -180,9 +186,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -195,9 +199,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -209,7 +211,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -218,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,34 +232,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,39 +582,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32602D3-92AE-4ED3-A19A-0543EAA6CD27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="5.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -614,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -626,84 +635,96 @@
         <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
+        <v>44863</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
-        <v>44863</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C5" s="12">
+        <v>44866</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>44866</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44870</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="12">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13">
-        <v>44870</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="19"/>
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>44883</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -713,7 +734,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -723,7 +744,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -733,7 +754,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -743,7 +764,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -753,7 +774,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -763,7 +784,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -773,7 +794,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -783,7 +804,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -793,7 +814,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -803,7 +824,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -813,7 +834,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -823,7 +844,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -833,7 +854,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -843,7 +864,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -853,7 +874,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -863,7 +884,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -873,7 +894,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -883,7 +904,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -893,7 +914,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -903,7 +924,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -913,7 +934,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -923,7 +944,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -933,7 +954,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -943,7 +964,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -956,8 +977,9 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>